--- a/biology/Botanique/Triplaris_weigeltiana/Triplaris_weigeltiana.xlsx
+++ b/biology/Botanique/Triplaris_weigeltiana/Triplaris_weigeltiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triplaris weigeltiana est une espèce d'arbres dioïques de la famille des Polygonaceae originaires des Antilles et d'Amérique centrale.
-On le nomme Mierenhoot, Mierenboom, Drytimehout (Sranan tongo), Mira hoedoe, Dreitin (Nenge tongo), Don oedoe (Saramaka), Jekoena (Arawak); Tassi, Tasie (Karib), au Suriname[2].
-Au Venezuela, on l'appelle Maria', Palo Maria, Santa Maria[3].
+On le nomme Mierenhoot, Mierenboom, Drytimehout (Sranan tongo), Mira hoedoe, Dreitin (Nenge tongo), Don oedoe (Saramaka), Jekoena (Arawak); Tassi, Tasie (Karib), au Suriname.
+Au Venezuela, on l'appelle Maria', Palo Maria, Santa Maria.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triplaris weigeltiana est un arbre dioïque à feuillage caduque pouvant atteindre 25 m de haut[3]. Le tronc droit, cylindrique, est peu profondément cannelé et avec des contreforts étroits et hauts, à plat. L'écorce très mince, vert grisâtre, comporte une couche chlorophyllienne, lisse, avec de petites écailles minces arrondies.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triplaris weigeltiana est un arbre dioïque à feuillage caduque pouvant atteindre 25 m de haut. Le tronc droit, cylindrique, est peu profondément cannelé et avec des contreforts étroits et hauts, à plat. L'écorce très mince, vert grisâtre, comporte une couche chlorophyllienne, lisse, avec de petites écailles minces arrondies.
 Le houppier est ovale, petit, avec des branches tortueuses, glabres, creuses, cloisonées (septées), généralement habitées par des fourmis.
 Les feuilles comportent un large pétiole, plat, de long de 0,5-2 cm.
 Le limbe longues de 14 à 36 cm, est
@@ -531,7 +545,7 @@
 Les fleurs sont de couleur blanchâtre. Le périanthe et la fructification sont de couleur jaune pâle (mâle) ou rougeâtre (femelle) à maturité
 Les fleurs mâles ont le tube de périanthe long de ± 2 mm, et des lobes presque aussi longs que le tube, velu des deux côtés, et des étamines très exsertes.
 Les fleurs femelles ont le tube et les lobes du périanthe longuement velus à l'extérieur, et un peu moins à l'intérieur, puis glabrescents au niveau du sinus, entre les larges lobes et entiers. Les lobes internes sont libres sur au moins 2/3 du tube.
-Le fruit est un akène au périanthe élargi, glabre ou presque, blanc, devenant brun au séchage, entourant la graine. Le tube, long de 7-13 mm, est globuleux, plié vers l'intérieur sous les marges saillantes vers l'extérieur des sinus. Les lobes extérieurs longs de 27-40 mm, ressemblent à des ailes, et portent 3 nervures principales. Les lobes internes subulés égalent ou dépassent le tube[2]
+Le fruit est un akène au périanthe élargi, glabre ou presque, blanc, devenant brun au séchage, entourant la graine. Le tube, long de 7-13 mm, est globuleux, plié vers l'intérieur sous les marges saillantes vers l'extérieur des sinus. Les lobes extérieurs longs de 27-40 mm, ressemblent à des ailes, et portent 3 nervures principales. Les lobes internes subulés égalent ou dépassent le tube
 </t>
         </is>
       </c>
@@ -560,9 +574,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triplaris weigeltiana est présent de la Colombie au Brésil en passant par le Venezuela, le Guyana, le Suriname, la Guyane, la Bolivie, l'Équateur, et le Pérou[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triplaris weigeltiana est présent de la Colombie au Brésil en passant par le Venezuela, le Guyana, le Suriname, la Guyane, la Bolivie, l'Équateur, et le Pérou.
 </t>
         </is>
       </c>
@@ -591,9 +607,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triplaris weigeltiana pousse dans les forêts sempervirentes de basse terre, entre 50-200 m d'altitude[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triplaris weigeltiana pousse dans les forêts sempervirentes de basse terre, entre 50-200 m d'altitude.
 Triplaris weigeltiana est une plante myrmécophile.
 </t>
         </is>
@@ -623,9 +641,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Triplaris americana Aubl. (synonyme de Triplaris weigeltiana)[4] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Triplaris americana Aubl. (synonyme de Triplaris weigeltiana) : 
 « TRIPLARIS (Americana) mas, ſpicis ſolitariis, axillaribus &amp; terminalibus. (Tabula 347.)
 Arbor quadraginta-pedalis ; trunco annulato, tubuloſo, ad ſummitatem ramoſo; ramis tubuloſis, annularis, undique ſparſis, recttis &amp; horizontalibus. Folia alterna, integerrima, ovato-oblonga, ampla, acuta, nervoſa, ſubpetiolata; petiolo baſi vaginæ amplexi-caulis &amp; deciduæ adnexo. Flores in ſpicam denſam, ſubſeſſilem, axillarem, terminalem diſpoſiti. 
 Arbor mas &amp; femina habitu vix diſcrepant. 
